--- a/WorkBot/main/backend/orders/OrderFiles/Sysco/Sysco_TRIPHAMMER_20250307.xlsx
+++ b/WorkBot/main/backend/orders/OrderFiles/Sysco/Sysco_TRIPHAMMER_20250307.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -934,6 +934,546 @@
         </is>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4617771</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Egg Patty</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>46.75</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>374.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>0017354</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Hash Brown</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>23.89</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>95.56</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>5833462</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Jalapenos (Sliced)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>26.49</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>26.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2366607</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Liquid Egg</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>38.95</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>38.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>7135261</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Sausage - Vegan Patty</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>9035601</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>American Cheese (Sliced)</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>48.63</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>48.63</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>4487633</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Barley</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>34.70</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>34.70</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>4579587</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Mayo</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>50.50</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>303.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>7161191</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Vegan Mozz</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>68.95</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>137.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>1159946</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Cheddar - Orange (Shredded)</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>64.45</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>64.45</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>4438911</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Grain Blend 5 Way</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>81.39</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>162.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>4500522</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Wrap - Rice Flour GF (12')</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>114.95</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>114.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>7133036</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Chicken - Diced White &amp; Dark</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>43.80</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>438.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>7213975</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Potsticker - Pork &amp; Veg</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>39.10</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>39.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>7256054</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Cheddar - Orange (Unsliced)</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>38.00</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>38.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>7975374</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Arugula - Fresh</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>23.13</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>46.26</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>1008143</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Kale - Fresh</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>31.95</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>63.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>1723857</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Lettuce - Green Leaf</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>23.63</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>70.89</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2416691</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Lettuce - Romaine Hearts</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>32.89</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>164.45</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>0683696</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Tomato - Fresh Sliced</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>31.68</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>380.16</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
